--- a/english_word_game/english_word_game.xlsx
+++ b/english_word_game/english_word_game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\microsoft_excel_projects\english_word_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D7868-0342-4F81-B9E9-DE48E63422AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44BF08-193A-4F6B-8E72-81A70E27E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{87B7438F-13AB-41D1-A0AF-7F059B6732F1}"/>
+    <workbookView showHorizontalScroll="0" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87B7438F-13AB-41D1-A0AF-7F059B6732F1}"/>
   </bookViews>
   <sheets>
     <sheet name="english_word_game" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>ENGLISH WORD GAME</t>
   </si>
   <si>
-    <t>CCM</t>
+    <t>Excel</t>
   </si>
 </sst>
 </file>
@@ -579,508 +579,507 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="4:10" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D2" s="12" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="4:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="10" t="str">
-        <f>CHAR(64+E4)</f>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="str">
+        <f>CHAR(64+B4)</f>
         <v>A</v>
       </c>
-      <c r="E4" s="11">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f>MID($F$5, E4, 1)</f>
+      <c r="F4" s="1" t="str">
+        <f>MID($C$5, B4, 1)</f>
+        <v>E</v>
+      </c>
+      <c r="G4" s="1">
+        <f>IFERROR(LOOKUP(F4, $A$4:$B$29), "")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="str">
+        <f t="shared" ref="A5:A29" si="0">CHAR(64+B5)</f>
+        <v>B</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9">
+        <f>IF(SUM(G:G)=0, "", SUM(G:G))</f>
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" ref="F5:F29" si="1">MID($C$5, B5, 1)</f>
+        <v>x</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G29" si="2">IFERROR(LOOKUP(F5, $A$4:$B$29), "")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="J4" s="1">
-        <f>IFERROR(LOOKUP(I4, $D$4:$E$29), "")</f>
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D29" si="0">CHAR(64+E5)</f>
-        <v>B</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G5" s="9">
-        <f>IF(SUM(J:J)=0, "", SUM(J:J))</f>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>R</v>
+      </c>
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" ref="I5:I29" si="1">MID($F$5, E5, 1)</f>
-        <v>C</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" ref="J5:J29" si="2">IFERROR(LOOKUP(I5, $D$4:$E$29), "")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>M</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>D</v>
-      </c>
-      <c r="E7" s="10">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>E</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-      <c r="E9" s="10">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>G</v>
-      </c>
-      <c r="E10" s="10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>H</v>
-      </c>
-      <c r="E11" s="10">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>I</v>
-      </c>
-      <c r="E12" s="10">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>J</v>
-      </c>
-      <c r="E13" s="10">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>K</v>
-      </c>
-      <c r="E14" s="10">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>L</v>
-      </c>
-      <c r="E15" s="10">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>M</v>
-      </c>
-      <c r="E16" s="10">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>N</v>
-      </c>
-      <c r="E17" s="10">
-        <v>14</v>
-      </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>O</v>
-      </c>
-      <c r="E18" s="10">
-        <v>15</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="E19" s="10">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Q</v>
-      </c>
-      <c r="E20" s="10">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>R</v>
-      </c>
-      <c r="E21" s="10">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>S</v>
-      </c>
-      <c r="E22" s="10">
-        <v>19</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="10" t="str">
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="E23" s="10">
+      <c r="B23" s="10">
         <v>20</v>
       </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="10" t="str">
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>U</v>
       </c>
-      <c r="E24" s="10">
+      <c r="B24" s="10">
         <v>21</v>
       </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="10" t="str">
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>V</v>
       </c>
-      <c r="E25" s="10">
+      <c r="B25" s="10">
         <v>22</v>
       </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="10" t="str">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>W</v>
       </c>
-      <c r="E26" s="10">
+      <c r="B26" s="10">
         <v>23</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="10" t="str">
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="E27" s="10">
+      <c r="B27" s="10">
         <v>24</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="10" t="str">
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="E28" s="10">
+      <c r="B28" s="10">
         <v>25</v>
       </c>
-      <c r="I28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="10" t="str">
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Z</v>
       </c>
-      <c r="E29" s="10">
+      <c r="B29" s="10">
         <v>26</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25"/>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OGqJ1Kw5luhYPj0myRYW7GMHTlrj+J+vkC7kd0Kfqgz+UOnfzSpayDJoZEl6yuBnM5NPsuGXkAicwAdRshdJwA==" saltValue="yMq+/ThZY894UIS/28LJqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8AZEfmaMK668Iaoh8V56Cw10YCErsGh3U0N/sR0qJ8r9pwnK5GsS/7CpHg4WkMLTDqoBk144uczUqpiV5Z9GwQ==" saltValue="6+yZOneCEfqcuKlokxpM0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange sqref="F5" name="Range1"/>
+    <protectedRange sqref="C5" name="Range1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/english_word_game/english_word_game.xlsx
+++ b/english_word_game/english_word_game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\microsoft_excel_projects\english_word_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98283B-8A43-4F89-A350-EE77854C273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087ECF-59EB-4329-8C78-16E9E77C3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{87B7438F-13AB-41D1-A0AF-7F059B6732F1}"/>
+    <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{87B7438F-13AB-41D1-A0AF-7F059B6732F1}"/>
   </bookViews>
   <sheets>
     <sheet name="english_word_game" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Enter the word:</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>English Word Game</t>
+  </si>
+  <si>
+    <t>Consultant</t>
   </si>
 </sst>
 </file>
@@ -291,6 +294,186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA145EEC-537D-9338-52DD-30DBEB1D4AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1038225"/>
+          <a:ext cx="1219200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>LinkedIn</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33D5D3C-40A8-461F-9708-7EC282597909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1457325"/>
+          <a:ext cx="1219200" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="156082">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:srgbClr val="156082">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:srgbClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="156082">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GitHub</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,7 +865,9 @@
         <v>0</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -696,16 +881,16 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>MID($I$5,E6,1)</f>
-        <v/>
+        <v>C</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="1">
         <f>IFERROR(LOOKUP(F6,$D$6:$E$31), "")</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -718,11 +903,11 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" ref="F7:F31" si="1">MID($I$5,E7,1)</f>
-        <v/>
-      </c>
-      <c r="L7" s="1" t="str">
+        <v>o</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L31" si="2">IFERROR(LOOKUP(F7,$D$6:$E$31), "")</f>
-        <v/>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
@@ -735,20 +920,20 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>n</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="13">
         <f>IF(SUM(L:L)=0,"",SUM(L:L))</f>
-        <v/>
+        <v>139</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
@@ -761,14 +946,14 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>s</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
@@ -781,14 +966,14 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>u</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
@@ -801,14 +986,14 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>l</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,14 +1006,14 @@
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>t</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
@@ -841,11 +1026,11 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>a</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
@@ -858,11 +1043,11 @@
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>n</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
@@ -875,11 +1060,11 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>t</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
@@ -1179,7 +1364,7 @@
       <c r="L35" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aMnXhqihkSVT1D9nwwM8yGYCJonBcJEA5ttic3Eg8IVpEAM9Api3atoBeAsIOEd3T8pzW8uj3CdxZSSJZq5BGw==" saltValue="WpgrwYODsX80xNrq2Yrf7g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SkinvkVPnfL/aGUOFHJbhRGURmeFKpCkvgCxfZn6cJbIdlkZ8UCUCsVMhpr7QlVZhxTflzZNV/9hKIOEQQQmiA==" saltValue="DB36wRFq/UNlPAnUudBHbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I5:K6"/>
@@ -1189,5 +1374,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.8" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/english_word_game/english_word_game.xlsx
+++ b/english_word_game/english_word_game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\microsoft_excel_projects\english_word_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9087ECF-59EB-4329-8C78-16E9E77C3F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF26654-4115-4A74-B142-C2E52E424F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="15720" xr2:uid="{87B7438F-13AB-41D1-A0AF-7F059B6732F1}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>English Word Game</t>
   </si>
   <si>
-    <t>Consultant</t>
+    <t>Excel</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f>MID($I$5,E6,1)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -890,7 +890,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="1">
         <f>IFERROR(LOOKUP(F6,$D$6:$E$31), "")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -903,11 +903,11 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" ref="F7:F31" si="1">MID($I$5,E7,1)</f>
-        <v>o</v>
+        <v>x</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L31" si="2">IFERROR(LOOKUP(F7,$D$6:$E$31), "")</f>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
@@ -920,20 +920,20 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>n</v>
+        <v>c</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="13">
         <f>IF(SUM(L:L)=0,"",SUM(L:L))</f>
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
@@ -946,14 +946,14 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>s</v>
+        <v>e</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
@@ -966,14 +966,14 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>u</v>
+        <v>l</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
@@ -986,14 +986,14 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>l</v>
+        <v/>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,14 +1006,14 @@
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>t</v>
+        <v/>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>a</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>n</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <v/>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
@@ -1060,11 +1060,11 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>t</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v/>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
